--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -4,26 +4,76 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JIO" sheetId="1" r:id="rId1"/>
+    <sheet name="JioPlans" sheetId="2" r:id="rId2"/>
+    <sheet name="JioPlansNegativeFlow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>contactNo</t>
+  </si>
+  <si>
+    <t>Plans</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits </t>
+  </si>
+  <si>
+    <t>56 days</t>
+  </si>
+  <si>
+    <t>365 days</t>
+  </si>
+  <si>
+    <t>84 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 GB </t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 GB </t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t>112GB &amp; Disney+ Hotstar</t>
+  </si>
+  <si>
+    <t>740GB &amp; Disney+ Hotstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB </t>
+  </si>
+  <si>
+    <t>112GB &amp; DISNEY+ HOTSTAR</t>
+  </si>
+  <si>
+    <t>56 Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,19 +83,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,14 +130,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,27 +449,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>8200042508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>8200042508</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>598</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2599</v>
+      </c>
+      <c r="B3" s="4">
+        <v>365</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2399</v>
+      </c>
+      <c r="B4" s="4">
+        <v>365</v>
+      </c>
+      <c r="C4" s="3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>599</v>
+      </c>
+      <c r="B5" s="4">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>444</v>
+      </c>
+      <c r="B6" s="4">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>249</v>
+      </c>
+      <c r="B7" s="4">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>598</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2599</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2399</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>599</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>444</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>249</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>